--- a/Resultados/Resultados PSO_simple con z en rango [2,3].xlsx
+++ b/Resultados/Resultados PSO_simple con z en rango [2,3].xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Universidad\Proyecto titulo1\PSO\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F7EFBB-CD6D-4E86-986F-AF815A7FE924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DFE26C-6FD4-40CB-9D61-E6FB8ED33D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="2670" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CL"/>
-              <a:t>Punto de convergencia</a:t>
+              <a:t>Punto de convergencia PSO</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -953,7 +953,11 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="98000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1864,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P79" sqref="P79"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
